--- a/result.xlsx
+++ b/result.xlsx
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1720,32 +1720,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>13.33%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1765,18 +1765,18 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>00:07:20</t>
+          <t>00:07:30</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>00:07:20</t>
+          <t>00:07:30</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>400</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>21.42%</t>
+          <t>21.41%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2312,17 +2312,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>7.55%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>615</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>33.14%</t>
+          <t>32.92%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12.47%</t>
+          <t>12.53%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>25.15%</t>
+          <t>25.27%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>00:08:19</t>
+          <t>00:08:20</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>00:08:14</t>
+          <t>00:08:15</t>
         </is>
       </c>
     </row>
